--- a/data/trans_orig/P14C31-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C31-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94369A25-F37A-4F7C-B944-E7B5B71E0A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA60C70-F1EB-406A-A407-3B093B9809B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B765896A-C58F-45E4-8FAE-64AB6F41E61B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C7CE7FE-A653-4DE4-A732-4094222FC110}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="138">
   <si>
     <t>Población según el tiempo de diagnóstico del enfermedad de riñón en 2015 (Tasa respuesta: 1,43%)</t>
   </si>
@@ -116,7 +116,7 @@
     <t>16,42%</t>
   </si>
   <si>
-    <t>67,72%</t>
+    <t>73,72%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -125,16 +125,16 @@
     <t>37,64%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
   </si>
   <si>
     <t>66,43%</t>
   </si>
   <si>
-    <t>17,13%</t>
+    <t>17,32%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -143,22 +143,22 @@
     <t>49,56%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>68,67%</t>
+    <t>66,96%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>50,89%</t>
+    <t>51,56%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -167,67 +167,64 @@
     <t>44,54%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
   </si>
   <si>
     <t>72,32%</t>
   </si>
   <si>
-    <t>28,78%</t>
+    <t>28,79%</t>
   </si>
   <si>
     <t>56,81%</t>
   </si>
   <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
   </si>
   <si>
     <t>44,71%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>57,08%</t>
+    <t>47,59%</t>
   </si>
   <si>
     <t>31,1%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
+    <t>12,51%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>44,72%</t>
+    <t>50,91%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>57,28%</t>
+    <t>56,91%</t>
   </si>
   <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>36,72%</t>
+    <t>36,95%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -236,52 +233,52 @@
     <t>69,49%</t>
   </si>
   <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
   </si>
   <si>
     <t>74,84%</t>
   </si>
   <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
   </si>
   <si>
     <t>72,4%</t>
   </si>
   <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>30,51%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
   </si>
   <si>
     <t>16,35%</t>
   </si>
   <si>
-    <t>49,43%</t>
+    <t>49,1%</t>
   </si>
   <si>
     <t>22,81%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -290,13 +287,13 @@
     <t>8,81%</t>
   </si>
   <si>
-    <t>43,0%</t>
+    <t>42,96%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>23,43%</t>
+    <t>23,77%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -314,19 +311,19 @@
     <t>79,8%</t>
   </si>
   <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
   </si>
   <si>
     <t>21,21%</t>
@@ -341,19 +338,19 @@
     <t>13,3%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>6,46%</t>
@@ -362,10 +359,7 @@
     <t>32,98%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
+    <t>21,14%</t>
   </si>
   <si>
     <t>6,77%</t>
@@ -374,61 +368,61 @@
     <t>1,88%</t>
   </si>
   <si>
-    <t>19,2%</t>
+    <t>19,1%</t>
   </si>
   <si>
     <t>58,05%</t>
   </si>
   <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>69,76%</t>
   </si>
   <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
   </si>
   <si>
     <t>35,29%</t>
   </si>
   <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>6,67%</t>
@@ -437,25 +431,22 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>15,81%</t>
+    <t>16,88%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>3,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4BA23C-BA1E-40F5-B279-DEF07C2B17BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D83F4AE-9639-4470-8916-03B6B4B32702}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1683,7 +1674,7 @@
         <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1698,13 +1689,13 @@
         <v>1004</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1713,13 +1704,13 @@
         <v>1018</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1728,13 +1719,13 @@
         <v>2022</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,7 +1781,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1802,13 +1793,13 @@
         <v>7742</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -1817,13 +1808,13 @@
         <v>9925</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -1832,13 +1823,13 @@
         <v>17668</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,13 +1844,13 @@
         <v>3399</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -1868,13 +1859,13 @@
         <v>2168</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -1883,13 +1874,13 @@
         <v>5567</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,7 +1901,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1919,13 +1910,13 @@
         <v>1169</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1934,13 +1925,13 @@
         <v>1169</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,7 +1987,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2008,13 +1999,13 @@
         <v>9830</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -2023,13 +2014,13 @@
         <v>26507</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -2038,13 +2029,13 @@
         <v>36337</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2050,13 @@
         <v>2882</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2074,13 +2065,13 @@
         <v>4419</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2089,13 +2080,13 @@
         <v>7301</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,13 +2101,13 @@
         <v>878</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2125,13 +2116,13 @@
         <v>2291</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2140,13 +2131,13 @@
         <v>3169</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,13 +2205,13 @@
         <v>25232</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H28" s="7">
         <v>40</v>
@@ -2229,13 +2220,13 @@
         <v>44735</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -2244,13 +2235,13 @@
         <v>69968</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2256,13 @@
         <v>15339</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -2280,13 +2271,13 @@
         <v>7613</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -2295,13 +2286,13 @@
         <v>22952</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2307,13 @@
         <v>2899</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -2331,13 +2322,13 @@
         <v>4478</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -2346,13 +2337,13 @@
         <v>7376</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,7 +2399,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C31-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C31-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA60C70-F1EB-406A-A407-3B093B9809B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{260D9559-62DB-4256-8C3C-9B4A96088FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C7CE7FE-A653-4DE4-A732-4094222FC110}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{038FC898-4D57-4C5A-9E2D-56DA3A00EC7B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="138">
   <si>
-    <t>Población según el tiempo de diagnóstico del enfermedad de riñón en 2015 (Tasa respuesta: 1,43%)</t>
+    <t>Población según el tiempo de diagnóstico del enfermedad de riñón en 2016 (Tasa respuesta: 1,43%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -116,7 +116,7 @@
     <t>16,42%</t>
   </si>
   <si>
-    <t>73,72%</t>
+    <t>66,26%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -125,16 +125,16 @@
     <t>37,64%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
   </si>
   <si>
     <t>66,43%</t>
   </si>
   <si>
-    <t>17,32%</t>
+    <t>16,45%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -143,22 +143,22 @@
     <t>49,56%</t>
   </si>
   <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>66,96%</t>
+    <t>70,49%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>51,56%</t>
+    <t>51,1%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -167,10 +167,10 @@
     <t>44,54%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
   </si>
   <si>
     <t>72,32%</t>
@@ -182,19 +182,19 @@
     <t>56,81%</t>
   </si>
   <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
   </si>
   <si>
     <t>44,71%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>13,89%</t>
@@ -206,13 +206,16 @@
     <t>31,1%</t>
   </si>
   <si>
-    <t>12,51%</t>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>50,91%</t>
+    <t>44,03%</t>
   </si>
   <si>
     <t>13,79%</t>
@@ -224,7 +227,7 @@
     <t>12,1%</t>
   </si>
   <si>
-    <t>36,95%</t>
+    <t>36,74%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -233,52 +236,46 @@
     <t>69,49%</t>
   </si>
   <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>38,63%</t>
   </si>
   <si>
     <t>74,84%</t>
   </si>
   <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>72,4%</t>
   </si>
   <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
   </si>
   <si>
     <t>30,51%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
+    <t>61,37%</t>
   </si>
   <si>
     <t>16,35%</t>
   </si>
   <si>
-    <t>49,1%</t>
+    <t>48,97%</t>
   </si>
   <si>
     <t>22,81%</t>
   </si>
   <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -287,13 +284,13 @@
     <t>8,81%</t>
   </si>
   <si>
-    <t>42,96%</t>
+    <t>43,04%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>23,77%</t>
+    <t>19,17%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -305,148 +302,151 @@
     <t>45,79%</t>
   </si>
   <si>
-    <t>92,02%</t>
+    <t>92,22%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
   </si>
   <si>
     <t>77,63%</t>
   </si>
   <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>20,58%</t>
   </si>
   <si>
     <t>6,77%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>58,05%</t>
   </si>
   <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>69,76%</t>
   </si>
   <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
   </si>
   <si>
     <t>35,29%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
+    <t>18,62%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>3,04%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -861,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D83F4AE-9639-4470-8916-03B6B4B32702}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75506138-2A5B-43AD-96BB-18FB1D2C3269}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1674,7 +1674,7 @@
         <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1689,13 +1689,13 @@
         <v>1004</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1704,13 +1704,13 @@
         <v>1018</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
@@ -1719,13 +1719,13 @@
         <v>2022</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1781,7 +1781,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1793,13 +1793,13 @@
         <v>7742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -1847,10 +1847,10 @@
         <v>73</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -1859,13 +1859,13 @@
         <v>2168</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -1874,13 +1874,13 @@
         <v>5567</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,7 +1901,7 @@
         <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1910,13 +1910,13 @@
         <v>1169</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1925,13 +1925,13 @@
         <v>1169</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,7 +1987,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1999,13 +1999,13 @@
         <v>9830</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -2014,13 +2014,13 @@
         <v>26507</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
@@ -2029,13 +2029,13 @@
         <v>36337</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,13 +2050,13 @@
         <v>2882</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2065,13 +2065,13 @@
         <v>4419</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2080,13 +2080,13 @@
         <v>7301</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2101,13 @@
         <v>878</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2116,7 +2116,7 @@
         <v>2291</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>16</v>
@@ -2325,10 +2325,10 @@
         <v>132</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -2337,13 +2337,13 @@
         <v>7376</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
